--- a/20_営業/10_マスタ/TE030/T_TE030_CMM_002_A09_02_従業員経費口座の銀行口座ID連携抽出_OIC統合.xlsx
+++ b/20_営業/10_マスタ/TE030/T_TE030_CMM_002_A09_02_従業員経費口座の銀行口座ID連携抽出_OIC統合.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\itoenfile\system\30.SCSK\89_SaaS対応\20_ERPCloud導入\20_実装フェーズ\10_成果物\16_単体テスト実施\10_OIC\XXCMM_002_A09_02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_19901～20000\E_本稼動_19992【共通】OIC3アップグレード対応\20_成果物\TE030\無影響確認\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="11400" windowWidth="23040" windowHeight="8655"/>
+    <workbookView xWindow="0" yWindow="12000" windowWidth="23040" windowHeight="8655"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -26,8 +26,9 @@
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ6)" sheetId="14" r:id="rId12"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ7)" sheetId="15" r:id="rId13"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ8)" sheetId="16" r:id="rId14"/>
-    <sheet name="不具合ログ" sheetId="7" r:id="rId15"/>
-    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId16"/>
+    <sheet name="テスト仕様_テスト結果(テスト・シナリオ9)" sheetId="18" r:id="rId15"/>
+    <sheet name="不具合ログ" sheetId="7" r:id="rId16"/>
+    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">テスト・シナリオ一覧!$A$1:$F$19</definedName>
@@ -41,11 +42,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="11">'テスト仕様_テスト結果(テスト・シナリオ6)'!$A$1:$I$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">'テスト仕様_テスト結果(テスト・シナリオ7)'!$A$1:$I$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="13">'テスト仕様_テスト結果(テスト・シナリオ8)'!$A$1:$I$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">'テスト仕様_テスト結果(テスト・シナリオ9)'!$A$1:$I$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">作成上の注意点!$A$1:$M$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$H$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$17</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -55,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="262">
   <si>
     <t>株式会社伊藤園</t>
     <phoneticPr fontId="5"/>
@@ -1501,10 +1503,6 @@
     <rPh sb="5" eb="9">
       <t>ホソヌマショウタ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Issue1.1</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -1927,17 +1925,204 @@
     <t>OK</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>Issue1.2</t>
+  </si>
+  <si>
+    <t>Issue1.2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SCSK 佐藤勇樹</t>
+    <rPh sb="5" eb="9">
+      <t>サトウユウキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>シナリオ9</t>
+  </si>
+  <si>
+    <t>OIC3アップグレード 無影響確認テスト(DBへのCUID・共通処理動作確認)</t>
+  </si>
+  <si>
+    <t>正常終了する。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>左記の通り</t>
+    <rPh sb="0" eb="2">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>佐藤</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD002(プロファイル値参照)
+・前回処理実行日時取得</t>
+    <rPh sb="21" eb="23">
+      <t>ゼンカイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD001(プロファイル値更新)
+・今回処理実行日時更新</t>
+    <rPh sb="21" eb="23">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①、②左記の通り</t>
+    <rPh sb="3" eb="5">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テスト・シナリオ9</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>9-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>9-2</t>
+  </si>
+  <si>
+    <t>9-3</t>
+  </si>
+  <si>
+    <t>9-4</t>
+  </si>
+  <si>
+    <t>T_TE030_CMM_002_A09_02_従業員経費口座の銀行口座ID連携抽出_OIC統合_エビデンス(シナリオ9).xlsx</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCMM002A09_02を実行する。
+OIC3アップグレードの影響でDBへのCUIDを実行するアクティビティまたは共通関数を呼び出すアクティビティの実行に影響が出ていないことを確認する。</t>
+    <rPh sb="15" eb="17">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>エイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>従業員経費口座の銀行口座ID連携抽出</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XXCMM002A09_02(従業員経費口座の銀行口座ID連携抽出)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCMM002A09_02の処理フロー内でSQLのUPDATE処理が実行され、正常終了する。</t>
+    <rPh sb="15" eb="17">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCMM002A09_02から共通処理XXCCD002が実行され、正常終了する。</t>
+    <rPh sb="16" eb="20">
+      <t>キョウツウショリ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①XXCMM002A09_02から共通処理XXCCD001が実行され、正常終了する。
+②プロファイルオプション値テーブルが更新される。</t>
+    <rPh sb="17" eb="21">
+      <t>キョウツウショリ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>{
+  "processId": 2319381
+}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>従業員経費口座テーブル更新</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>E_本稼働_19992 OICアップグレード対応 無影響確認</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="mmm\ dd\ yyyy"/>
     <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2140,6 +2325,21 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -2190,7 +2390,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -2856,6 +3056,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2869,7 +3080,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3249,6 +3460,24 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3293,6 +3522,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99CC"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFC0C0C0"/>
     </mruColors>
@@ -4305,6 +4535,731 @@
         <a:xfrm>
           <a:off x="28575" y="30184725"/>
           <a:ext cx="3400425" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 他に添付するエビデンスなどがあれば</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>         記述します。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="251460" y="30361890"/>
+          <a:ext cx="6939915" cy="2606040"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.020作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト・シナリオ毎のテスト・ステップを記載して下さい。コンカレント・プログラムの場合は各プロセスの内部処理、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        画面の場合は各機能の内部処理で、結果が分岐しうる処理を網羅するようにして下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト内容」には、テスト・ステップ毎のテスト内容を記載して下さい。また、記載の上の注意は、以下を参照して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・処理が分岐しうる条件を、カラム名単位で詳細に記載して下さい。その際、カラム名は、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               検証のポイントとなるカラムを選択して記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>　                 例：○○フラグ＝'Y'によって抽出対象となる事を確認</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・データ取得ロジック(SELECT文)を確認する場合、SELECTできないケースも記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・１データを複数のテスト・ステップで使用する場合、以下の例を参考に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                   例：シナリオX-Xと同時検証</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト対象機能」には、「MD.050機能拡張に当っての機能設計書」（または「MD.070 機能拡張にあたっての</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        技術設計書」）で定義される「機能番号」および「機能名」を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 画面テストの際に画面から入力する値は、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: コンカレント、共通関数のテスト実施の際に使用するパラメータは、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>158115</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="251460" y="33063180"/>
+          <a:ext cx="6939915" cy="2802255"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.070作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト結果表に単体テスト結果を記載する際には、次のガイドラインに従います。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            1）予想結果: 成否判定が可能な予想される結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                    例：○○フラグ＝'Y'により抽出対象となる、××IDが不一致のため更新対象外となる</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            2）実際の結果: 実際にテスト・ステップで定義された内容でテストを実施した際の、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               予想結果に対応する実際の結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            3）判定: 予想結果と実際の結果を比較し、テストの成否を判定した結果を以下の3つの記号で記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・○: テスト成功</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・×: テスト失敗</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・－: 対象外（前ステップでテストが失敗し、テストが実施できなかったような場合に使用します。）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            4）テスター: テスト実施者名を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            5）実施日: テスト実施日の年月日を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: パフォーマンス・テスト用のテスト・シナリオの場合、「予想結果」、「実際の結果」に処理時間を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 再テストの場合、行を挿入して再テスト結果を記載してください。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2447925</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>158115</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="28575" y="29542740"/>
+          <a:ext cx="3303270" cy="455295"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst>
@@ -10449,7 +11404,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="10.75" style="2" customWidth="1"/>
@@ -10459,7 +11414,7 @@
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="12" customHeight="1">
+    <row r="3" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -10467,7 +11422,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:8" ht="6" customHeight="1">
+    <row r="4" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -10476,7 +11431,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="21">
+    <row r="5" spans="2:8" ht="21" x14ac:dyDescent="0.15">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -10485,67 +11440,67 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="64.150000000000006" customHeight="1">
-      <c r="B6" s="137" t="s">
+    <row r="6" spans="2:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="143" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-    </row>
-    <row r="7" spans="2:8" ht="6" customHeight="1">
+      <c r="C6" s="143"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+    </row>
+    <row r="7" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="2:8" ht="6" customHeight="1">
+    <row r="8" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B9" s="138" t="s">
+    <row r="9" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="138"/>
-      <c r="D9" s="138"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="138"/>
-    </row>
-    <row r="10" spans="2:8" ht="6" customHeight="1">
+      <c r="C9" s="144"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="144"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="144"/>
+    </row>
+    <row r="10" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B11" s="138" t="s">
+    <row r="11" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="138"/>
-      <c r="D11" s="138"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="138"/>
-    </row>
-    <row r="12" spans="2:8" ht="6" customHeight="1"/>
-    <row r="13" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B13" s="138" t="s">
+      <c r="C11" s="144"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="144"/>
+      <c r="G11" s="144"/>
+      <c r="H11" s="144"/>
+    </row>
+    <row r="12" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="144" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="138"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="138"/>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="C13" s="144"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="144"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B16" s="6" t="s">
         <v>1</v>
       </c>
@@ -10553,11 +11508,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="6" customHeight="1">
+    <row r="17" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B18" s="6" t="s">
         <v>2</v>
       </c>
@@ -10565,23 +11520,23 @@
         <v>44914</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="6" customHeight="1">
+    <row r="19" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="6"/>
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B20" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="7">
-        <v>44985</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="6" customHeight="1">
+        <v>45561</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B22" s="6" t="s">
         <v>73</v>
       </c>
@@ -10589,25 +11544,25 @@
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="6" customHeight="1">
+    <row r="23" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B24" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B26" s="6"/>
     </row>
-    <row r="28" spans="1:8" ht="12" customHeight="1">
+    <row r="28" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
@@ -10619,7 +11574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="12" customHeight="1">
+    <row r="29" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -10657,7 +11612,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -10670,7 +11625,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -10681,35 +11636,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="105" t="s">
         <v>42</v>
       </c>
@@ -10735,7 +11690,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="31.5">
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>154</v>
@@ -10750,7 +11705,7 @@
       <c r="H11" s="120"/>
       <c r="I11" s="126"/>
     </row>
-    <row r="12" spans="1:9" ht="73.5">
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B12" s="64" t="s">
         <v>155</v>
       </c>
@@ -10776,7 +11731,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="63">
+    <row r="13" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -10796,7 +11751,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -10816,7 +11771,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="115.5">
+    <row r="15" spans="1:9" ht="115.5" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -10836,7 +11791,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="52.5">
+    <row r="16" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -10856,7 +11811,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="199.5">
+    <row r="17" spans="1:9" ht="199.5" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -10876,7 +11831,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="105">
+    <row r="18" spans="1:9" ht="105" x14ac:dyDescent="0.15">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -10896,7 +11851,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="63">
+    <row r="19" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -10916,7 +11871,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="63">
+    <row r="20" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="A20" s="38"/>
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
@@ -10937,7 +11892,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
@@ -10948,7 +11903,7 @@
       <c r="H21" s="57"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -10958,7 +11913,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="38"/>
       <c r="B23" s="125"/>
       <c r="C23" s="46"/>
@@ -10969,7 +11924,7 @@
       <c r="H23" s="57"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="38"/>
       <c r="B24" s="125"/>
       <c r="C24" s="46"/>
@@ -10980,7 +11935,7 @@
       <c r="H24" s="57"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="125"/>
       <c r="C25" s="46"/>
       <c r="D25" s="121"/>
@@ -10990,7 +11945,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="125"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -11000,7 +11955,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -11010,7 +11965,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -11020,7 +11975,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="64"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -11030,7 +11985,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="64"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -11040,7 +11995,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="64"/>
       <c r="C31" s="119"/>
       <c r="D31" s="46"/>
@@ -11050,7 +12005,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="64"/>
       <c r="C32" s="46"/>
       <c r="D32" s="46"/>
@@ -11060,7 +12015,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="68"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -11070,7 +12025,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="68"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
@@ -11080,7 +12035,7 @@
       <c r="H34" s="46"/>
       <c r="I34" s="76"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="68"/>
       <c r="C35" s="46"/>
       <c r="D35" s="46"/>
@@ -11090,7 +12045,7 @@
       <c r="H35" s="46"/>
       <c r="I35" s="76"/>
     </row>
-    <row r="36" spans="1:9" ht="14.25" thickBot="1">
+    <row r="36" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B36" s="72"/>
       <c r="C36" s="47"/>
       <c r="D36" s="47"/>
@@ -11100,7 +12055,7 @@
       <c r="H36" s="47"/>
       <c r="I36" s="77"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -11110,7 +12065,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -11120,7 +12075,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9" ht="6" customHeight="1">
+    <row r="39" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="28"/>
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
@@ -11130,7 +12085,7 @@
       <c r="G39" s="35"/>
       <c r="H39" s="35"/>
     </row>
-    <row r="40" spans="1:9" ht="14.25">
+    <row r="40" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="32" t="s">
         <v>50</v>
       </c>
@@ -11140,7 +12095,7 @@
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
@@ -11150,7 +12105,7 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -11160,7 +12115,7 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
@@ -11170,7 +12125,7 @@
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
@@ -11180,7 +12135,7 @@
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="35"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
@@ -11190,7 +12145,7 @@
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
@@ -11222,11 +12177,11 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -11239,7 +12194,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -11250,35 +12205,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="105" t="s">
         <v>42</v>
       </c>
@@ -11304,7 +12259,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="31.5">
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>156</v>
@@ -11319,7 +12274,7 @@
       <c r="H11" s="120"/>
       <c r="I11" s="126"/>
     </row>
-    <row r="12" spans="1:9" ht="73.5">
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B12" s="64" t="s">
         <v>157</v>
       </c>
@@ -11345,7 +12300,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="63">
+    <row r="13" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -11365,7 +12320,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -11385,7 +12340,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -11405,7 +12360,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="31.5">
+    <row r="16" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
@@ -11426,7 +12381,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="73.5">
+    <row r="17" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
@@ -11447,7 +12402,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="63">
+    <row r="18" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -11467,7 +12422,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="73.5">
+    <row r="19" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B19" s="64" t="s">
         <v>163</v>
       </c>
@@ -11493,7 +12448,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="63">
+    <row r="20" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -11513,7 +12468,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="42">
+    <row r="21" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
@@ -11533,7 +12488,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="115.5">
+    <row r="22" spans="1:9" ht="115.5" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -11553,7 +12508,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="52.5">
+    <row r="23" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -11573,12 +12528,12 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="105">
+    <row r="24" spans="1:9" ht="105" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
       <c r="C24" s="119"/>
       <c r="D24" s="46"/>
       <c r="E24" s="51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F24" s="46" t="s">
         <v>190</v>
@@ -11593,7 +12548,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="63">
+    <row r="25" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -11613,7 +12568,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="105">
+    <row r="26" spans="1:9" ht="105" x14ac:dyDescent="0.15">
       <c r="B26" s="68"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -11633,7 +12588,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="63">
+    <row r="27" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B27" s="68"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -11653,7 +12608,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="63">
+    <row r="28" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B28" s="68"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -11673,7 +12628,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="14.25" thickBot="1">
+    <row r="29" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="72"/>
       <c r="C29" s="47"/>
       <c r="D29" s="47"/>
@@ -11683,7 +12638,7 @@
       <c r="H29" s="47"/>
       <c r="I29" s="77"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
@@ -11693,7 +12648,7 @@
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -11703,7 +12658,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9" ht="6" customHeight="1">
+    <row r="32" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="28"/>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
@@ -11713,7 +12668,7 @@
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="14.25">
+    <row r="33" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="32" t="s">
         <v>50</v>
       </c>
@@ -11723,7 +12678,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
@@ -11733,7 +12688,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -11743,7 +12698,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -11753,7 +12708,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -11763,7 +12718,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -11773,7 +12728,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -11809,7 +12764,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -11822,7 +12777,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -11833,35 +12788,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="105" t="s">
         <v>42</v>
       </c>
@@ -11887,7 +12842,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="31.5">
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>164</v>
@@ -11902,7 +12857,7 @@
       <c r="H11" s="120"/>
       <c r="I11" s="126"/>
     </row>
-    <row r="12" spans="1:9" ht="73.5">
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B12" s="64" t="s">
         <v>165</v>
       </c>
@@ -11928,7 +12883,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="63">
+    <row r="13" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B13" s="125"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -11948,7 +12903,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="125"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -11968,7 +12923,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="125"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -11988,7 +12943,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="31.5">
+    <row r="16" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="125"/>
       <c r="C16" s="46"/>
@@ -12009,7 +12964,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="73.5">
+    <row r="17" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
       <c r="B17" s="125"/>
       <c r="C17" s="46"/>
@@ -12030,7 +12985,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="63">
+    <row r="18" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B18" s="125"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -12050,7 +13005,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="125"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -12060,7 +13015,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -12070,7 +13025,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
@@ -12080,7 +13035,7 @@
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -12090,7 +13045,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -12100,7 +13055,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
       <c r="C24" s="119"/>
       <c r="D24" s="46"/>
@@ -12110,7 +13065,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -12120,7 +13075,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="68"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -12130,7 +13085,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="68"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -12140,7 +13095,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="68"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -12150,7 +13105,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9" ht="14.25" thickBot="1">
+    <row r="29" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="72"/>
       <c r="C29" s="47"/>
       <c r="D29" s="47"/>
@@ -12160,7 +13115,7 @@
       <c r="H29" s="47"/>
       <c r="I29" s="77"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
@@ -12170,7 +13125,7 @@
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -12180,7 +13135,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9" ht="6" customHeight="1">
+    <row r="32" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="28"/>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
@@ -12190,7 +13145,7 @@
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="14.25">
+    <row r="33" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="32" t="s">
         <v>50</v>
       </c>
@@ -12200,7 +13155,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
@@ -12210,7 +13165,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -12220,7 +13175,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -12230,7 +13185,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -12240,7 +13195,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -12250,7 +13205,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -12286,7 +13241,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -12299,7 +13254,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -12310,35 +13265,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="105" t="s">
         <v>42</v>
       </c>
@@ -12364,7 +13319,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="31.5">
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>166</v>
@@ -12379,7 +13334,7 @@
       <c r="H11" s="120"/>
       <c r="I11" s="126"/>
     </row>
-    <row r="12" spans="1:9" ht="73.5">
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B12" s="64" t="s">
         <v>167</v>
       </c>
@@ -12405,7 +13360,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="63">
+    <row r="13" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B13" s="125"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -12425,7 +13380,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="125"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -12445,7 +13400,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="125"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -12465,7 +13420,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="31.5">
+    <row r="16" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="125"/>
       <c r="C16" s="46"/>
@@ -12486,7 +13441,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="73.5">
+    <row r="17" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
       <c r="B17" s="125"/>
       <c r="C17" s="46"/>
@@ -12507,7 +13462,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="63">
+    <row r="18" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B18" s="125"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -12527,7 +13482,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="125"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -12537,7 +13492,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -12547,7 +13502,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
@@ -12557,7 +13512,7 @@
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -12567,7 +13522,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -12577,7 +13532,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
       <c r="C24" s="119"/>
       <c r="D24" s="46"/>
@@ -12587,7 +13542,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -12597,7 +13552,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="68"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -12607,7 +13562,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="68"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -12617,7 +13572,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="68"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -12627,7 +13582,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9" ht="14.25" thickBot="1">
+    <row r="29" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="72"/>
       <c r="C29" s="47"/>
       <c r="D29" s="47"/>
@@ -12637,7 +13592,7 @@
       <c r="H29" s="47"/>
       <c r="I29" s="77"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
@@ -12647,7 +13602,7 @@
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -12657,7 +13612,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9" ht="6" customHeight="1">
+    <row r="32" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="28"/>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
@@ -12667,7 +13622,7 @@
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="14.25">
+    <row r="33" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="32" t="s">
         <v>50</v>
       </c>
@@ -12677,7 +13632,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
@@ -12687,7 +13642,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -12697,7 +13652,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -12707,7 +13662,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -12717,7 +13672,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -12727,7 +13682,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -12763,7 +13718,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -12776,7 +13731,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -12787,35 +13742,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="105" t="s">
         <v>42</v>
       </c>
@@ -12841,7 +13796,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="31.5">
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>168</v>
@@ -12856,7 +13811,7 @@
       <c r="H11" s="120"/>
       <c r="I11" s="126"/>
     </row>
-    <row r="12" spans="1:9" ht="73.5">
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B12" s="64" t="s">
         <v>169</v>
       </c>
@@ -12864,7 +13819,7 @@
         <v>186</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="E12" s="51" t="s">
         <v>189</v>
@@ -12882,7 +13837,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="63">
+    <row r="13" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B13" s="125"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -12902,7 +13857,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="125"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -12922,7 +13877,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="125"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -12942,7 +13897,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="31.5">
+    <row r="16" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="125"/>
       <c r="C16" s="46"/>
@@ -12963,7 +13918,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="73.5">
+    <row r="17" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
       <c r="B17" s="125"/>
       <c r="C17" s="46"/>
@@ -12984,7 +13939,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="63">
+    <row r="18" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B18" s="125"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -13004,7 +13959,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="125"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -13014,7 +13969,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -13024,7 +13979,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
@@ -13034,7 +13989,7 @@
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -13044,7 +13999,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -13054,7 +14009,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
       <c r="C24" s="119"/>
       <c r="D24" s="46"/>
@@ -13064,7 +14019,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -13074,7 +14029,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="68"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -13084,7 +14039,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="68"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -13094,7 +14049,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="68"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -13104,7 +14059,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9" ht="14.25" thickBot="1">
+    <row r="29" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="72"/>
       <c r="C29" s="47"/>
       <c r="D29" s="47"/>
@@ -13114,7 +14069,7 @@
       <c r="H29" s="47"/>
       <c r="I29" s="77"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
@@ -13124,7 +14079,7 @@
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -13134,7 +14089,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9" ht="6" customHeight="1">
+    <row r="32" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="28"/>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
@@ -13144,7 +14099,7 @@
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="14.25">
+    <row r="33" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="32" t="s">
         <v>50</v>
       </c>
@@ -13154,7 +14109,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
@@ -13164,7 +14119,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -13174,7 +14129,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -13184,7 +14139,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -13194,7 +14149,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -13204,7 +14159,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -13230,12 +14185,332 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF99CC"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
+    <col min="3" max="3" width="40.125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="21.625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="27" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="25"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="37" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="106" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="106" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="106" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="106" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="106" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="106" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="107" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="A11" s="38"/>
+      <c r="B11" s="142" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" s="119" t="s">
+        <v>253</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I11" s="78">
+        <v>45434</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="38"/>
+      <c r="B12" s="142" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" s="119" t="s">
+        <v>259</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="H12" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I12" s="78">
+        <v>45434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="A13" s="38"/>
+      <c r="B13" s="142" t="s">
+        <v>250</v>
+      </c>
+      <c r="C13" s="119"/>
+      <c r="D13" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>257</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="H13" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="I13" s="76">
+        <v>45434</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
+      <c r="B14" s="142" t="s">
+        <v>251</v>
+      </c>
+      <c r="C14" s="51"/>
+      <c r="D14" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>258</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="G14" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="H14" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="I14" s="76">
+        <v>45434</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="72"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="77"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+    </row>
+    <row r="18" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="127" t="s">
+        <v>252</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G15">
+      <formula1>"OK,NG"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="3" width="9.125" style="27" customWidth="1"/>
@@ -13245,7 +14520,7 @@
     <col min="9" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="6" customHeight="1">
+    <row r="1" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -13255,51 +14530,51 @@
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
     </row>
-    <row r="2" spans="1:8" ht="17.25">
+    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25" thickBot="1">
+    <row r="4" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="33" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="B5" s="142" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B5" s="148" t="s">
         <v>67</v>
       </c>
       <c r="C5" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="144" t="s">
+      <c r="D5" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="146" t="s">
+      <c r="E5" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="144" t="s">
+      <c r="F5" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="146" t="s">
+      <c r="G5" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="140" t="s">
+      <c r="H5" s="146" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25" thickBot="1">
-      <c r="B6" s="143"/>
+    <row r="6" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="149"/>
       <c r="C6" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="145"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="141"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="D6" s="151"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="147"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B7" s="66" t="s">
         <v>197</v>
       </c>
@@ -13322,7 +14597,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" s="68"/>
       <c r="C8" s="42"/>
       <c r="D8" s="44"/>
@@ -13331,7 +14606,7 @@
       <c r="G8" s="48"/>
       <c r="H8" s="69"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B9" s="68"/>
       <c r="C9" s="46"/>
       <c r="D9" s="42"/>
@@ -13340,7 +14615,7 @@
       <c r="G9" s="52"/>
       <c r="H9" s="69"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="68"/>
       <c r="C10" s="46"/>
       <c r="D10" s="46"/>
@@ -13349,7 +14624,7 @@
       <c r="G10" s="48"/>
       <c r="H10" s="69"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B11" s="68"/>
       <c r="C11" s="42"/>
       <c r="D11" s="46"/>
@@ -13358,7 +14633,7 @@
       <c r="G11" s="53"/>
       <c r="H11" s="70"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" s="68"/>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
@@ -13367,7 +14642,7 @@
       <c r="G12" s="52"/>
       <c r="H12" s="70"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B13" s="68"/>
       <c r="C13" s="42"/>
       <c r="D13" s="54"/>
@@ -13376,7 +14651,7 @@
       <c r="G13" s="48"/>
       <c r="H13" s="71"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B14" s="68"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -13385,7 +14660,7 @@
       <c r="G14" s="52"/>
       <c r="H14" s="70"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B15" s="68"/>
       <c r="C15" s="42"/>
       <c r="D15" s="54"/>
@@ -13394,7 +14669,7 @@
       <c r="G15" s="48"/>
       <c r="H15" s="71"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" s="68"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -13403,7 +14678,7 @@
       <c r="G16" s="52"/>
       <c r="H16" s="69"/>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" s="68"/>
       <c r="C17" s="42"/>
       <c r="D17" s="54"/>
@@ -13412,7 +14687,7 @@
       <c r="G17" s="48"/>
       <c r="H17" s="70"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" s="68"/>
       <c r="C18" s="46"/>
       <c r="D18" s="42"/>
@@ -13421,7 +14696,7 @@
       <c r="G18" s="52"/>
       <c r="H18" s="69"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="68"/>
       <c r="C19" s="42"/>
       <c r="D19" s="46"/>
@@ -13430,7 +14705,7 @@
       <c r="G19" s="48"/>
       <c r="H19" s="70"/>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" s="68"/>
       <c r="C20" s="46"/>
       <c r="D20" s="42"/>
@@ -13439,7 +14714,7 @@
       <c r="G20" s="52"/>
       <c r="H20" s="69"/>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21" s="68"/>
       <c r="C21" s="42"/>
       <c r="D21" s="46"/>
@@ -13448,7 +14723,7 @@
       <c r="G21" s="48"/>
       <c r="H21" s="70"/>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B22" s="68"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -13457,7 +14732,7 @@
       <c r="G22" s="52"/>
       <c r="H22" s="69"/>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23" s="66"/>
       <c r="C23" s="55"/>
       <c r="D23" s="55"/>
@@ -13466,7 +14741,7 @@
       <c r="G23" s="56"/>
       <c r="H23" s="69"/>
     </row>
-    <row r="24" spans="2:8" ht="14.25" thickBot="1">
+    <row r="24" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="72"/>
       <c r="C24" s="73"/>
       <c r="D24" s="73"/>
@@ -13496,14 +14771,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="27" customWidth="1"/>
     <col min="2" max="2" width="6.625" style="27" customWidth="1"/>
@@ -13514,7 +14789,7 @@
     <col min="8" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="6" customHeight="1">
+    <row r="1" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="28"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -13523,25 +14798,25 @@
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
     </row>
-    <row r="2" spans="1:7" ht="17.25">
+    <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="6" customHeight="1">
+    <row r="4" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
     </row>
-    <row r="5" spans="1:7" ht="14.25">
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" thickBot="1">
+    <row r="6" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="14.25" thickBot="1">
+    <row r="7" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="59"/>
       <c r="B7" s="110" t="s">
         <v>61</v>
@@ -13562,7 +14837,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
+    <row r="8" spans="1:7" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="35"/>
       <c r="B8" s="60"/>
       <c r="C8" s="61"/>
@@ -13571,7 +14846,7 @@
       <c r="F8" s="62"/>
       <c r="G8" s="63"/>
     </row>
-    <row r="9" spans="1:7" ht="14.1" customHeight="1">
+    <row r="9" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -13580,23 +14855,23 @@
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="6" customHeight="1">
+    <row r="11" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="28"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
     </row>
-    <row r="12" spans="1:7" ht="14.25">
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="32" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" thickBot="1">
+    <row r="13" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
     </row>
-    <row r="14" spans="1:7" ht="14.25" thickBot="1">
+    <row r="14" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="59"/>
       <c r="B14" s="110" t="s">
         <v>61</v>
@@ -13617,7 +14892,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.1" customHeight="1">
+    <row r="15" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="35"/>
       <c r="B15" s="64"/>
       <c r="C15" s="39"/>
@@ -13626,7 +14901,7 @@
       <c r="F15" s="40"/>
       <c r="G15" s="65"/>
     </row>
-    <row r="16" spans="1:7" ht="14.1" customHeight="1">
+    <row r="16" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="35"/>
       <c r="B16" s="64"/>
       <c r="C16" s="39"/>
@@ -13635,7 +14910,7 @@
       <c r="F16" s="40"/>
       <c r="G16" s="65"/>
     </row>
-    <row r="17" spans="1:7" ht="14.1" customHeight="1">
+    <row r="17" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="35"/>
       <c r="B17" s="64"/>
       <c r="C17" s="39"/>
@@ -13644,7 +14919,7 @@
       <c r="F17" s="40"/>
       <c r="G17" s="65"/>
     </row>
-    <row r="18" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
+    <row r="18" spans="1:7" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="35"/>
       <c r="B18" s="60"/>
       <c r="C18" s="61"/>
@@ -13668,20 +14943,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="15"/>
-    <col min="2" max="2" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.625" style="15" customWidth="1"/>
     <col min="4" max="4" width="7.625" style="15" customWidth="1"/>
     <col min="5" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="8.1" customHeight="1">
+    <row r="1" spans="1:9" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -13692,29 +14967,29 @@
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="3.95" customHeight="1">
+    <row r="4" spans="1:9" ht="3.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="14.25">
+    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+    <row r="6" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
     </row>
-    <row r="7" spans="1:9" ht="14.25" thickBot="1">
+    <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="99" t="s">
         <v>10</v>
       </c>
@@ -13732,7 +15007,7 @@
       <c r="H7" s="101"/>
       <c r="I7" s="102"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="91">
         <v>44914</v>
       </c>
@@ -13750,7 +15025,7 @@
       <c r="H8" s="23"/>
       <c r="I8" s="92"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B9" s="91">
         <v>44984</v>
       </c>
@@ -13768,7 +15043,7 @@
       <c r="H9" s="23"/>
       <c r="I9" s="92"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B10" s="91">
         <v>44985</v>
       </c>
@@ -13779,34 +15054,52 @@
         <v>209</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
       <c r="I10" s="92"/>
     </row>
-    <row r="11" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B11" s="93"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="98"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="17"/>
-    </row>
-    <row r="13" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="137">
+        <v>45561</v>
+      </c>
+      <c r="C11" s="138" t="s">
+        <v>238</v>
+      </c>
+      <c r="D11" s="139" t="s">
+        <v>236</v>
+      </c>
+      <c r="E11" s="140" t="s">
+        <v>261</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="92"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="93"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="98"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="17"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="17"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="17"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -13827,13 +15120,13 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="13" width="6.625" style="27" customWidth="1"/>
     <col min="14" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="15" customFormat="1" ht="8.1" customHeight="1">
+    <row r="1" spans="1:13" s="15" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -13848,156 +15141,156 @@
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
     </row>
-    <row r="2" spans="1:13" ht="17.25">
+    <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="4" spans="1:13" ht="6" customHeight="1">
+    <row r="3" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
     </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1">
+    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="13.5" customHeight="1">
+    <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="29"/>
     </row>
-    <row r="7" spans="1:13" ht="14.45" customHeight="1">
+    <row r="7" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="9" spans="1:13" ht="14.45" customHeight="1">
+    <row r="8" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="38" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="14.45" customHeight="1">
+    <row r="10" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="12" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="13" spans="1:13" ht="6" customHeight="1">
+    <row r="11" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="29"/>
     </row>
-    <row r="16" spans="1:13" ht="14.45" customHeight="1">
+    <row r="16" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="14.45" customHeight="1">
+    <row r="17" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="19" spans="1:13" ht="14.45" customHeight="1">
+    <row r="18" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="27" t="s">
         <v>22</v>
       </c>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="1:13" ht="14.45" customHeight="1">
+    <row r="20" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="38" t="s">
         <v>81</v>
       </c>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:13" ht="14.45" customHeight="1">
+    <row r="21" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="1:13" ht="14.45" customHeight="1">
+    <row r="22" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:13" ht="6" customHeight="1">
+    <row r="23" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="28"/>
       <c r="B23" s="28"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="14.45" customHeight="1">
+    <row r="25" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J25" s="30"/>
     </row>
-    <row r="26" spans="1:13" ht="14.45" customHeight="1">
+    <row r="26" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="27" t="s">
         <v>24</v>
       </c>
       <c r="M26" s="30"/>
     </row>
-    <row r="27" spans="1:13" ht="14.45" customHeight="1">
+    <row r="27" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="27" t="s">
         <v>25</v>
       </c>
       <c r="M27" s="30"/>
     </row>
-    <row r="28" spans="1:13" ht="14.45" customHeight="1">
+    <row r="28" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="27" t="s">
         <v>26</v>
       </c>
       <c r="M28" s="30"/>
     </row>
-    <row r="29" spans="1:13" ht="14.45" customHeight="1">
+    <row r="29" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="27" t="s">
         <v>27</v>
       </c>
       <c r="M29" s="30"/>
     </row>
-    <row r="30" spans="1:13" ht="14.45" customHeight="1">
+    <row r="30" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="27" t="s">
         <v>28</v>
       </c>
       <c r="M30" s="30"/>
     </row>
-    <row r="31" spans="1:13" ht="14.45" customHeight="1">
+    <row r="31" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="27" t="s">
         <v>29</v>
       </c>
       <c r="M31" s="30"/>
     </row>
-    <row r="32" spans="1:13" ht="14.45" customHeight="1">
+    <row r="32" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="27" t="s">
         <v>30</v>
       </c>
       <c r="M32" s="30"/>
     </row>
-    <row r="33" spans="2:13" ht="14.45" customHeight="1">
+    <row r="33" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="27" t="s">
         <v>31</v>
       </c>
       <c r="M33" s="30"/>
     </row>
-    <row r="34" spans="2:13" ht="14.45" customHeight="1">
+    <row r="34" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="27" t="s">
         <v>32</v>
       </c>
       <c r="M34" s="30"/>
     </row>
-    <row r="35" spans="2:13" ht="14.45" customHeight="1">
+    <row r="35" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M35" s="30"/>
     </row>
-    <row r="36" spans="2:13" ht="14.45" customHeight="1">
+    <row r="36" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M36" s="30"/>
     </row>
-    <row r="37" spans="2:13" ht="14.45" customHeight="1">
+    <row r="37" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M37" s="30"/>
     </row>
   </sheetData>
@@ -14015,13 +15308,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
+    <tabColor rgb="FFFF99CC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="2.75" style="82"/>
     <col min="4" max="4" width="22.125" style="82" customWidth="1"/>
@@ -14030,7 +15324,7 @@
     <col min="7" max="16384" width="2.75" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="6" customHeight="1">
+    <row r="1" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="81"/>
       <c r="B1" s="81"/>
       <c r="C1" s="81"/>
@@ -14038,7 +15332,7 @@
       <c r="E1" s="81"/>
       <c r="F1" s="81"/>
     </row>
-    <row r="2" spans="1:6" ht="17.25">
+    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="80" t="s">
         <v>72</v>
       </c>
@@ -14048,7 +15342,7 @@
       <c r="E2" s="79"/>
       <c r="F2" s="79"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="79"/>
       <c r="B3" s="79"/>
       <c r="C3" s="83"/>
@@ -14056,7 +15350,7 @@
       <c r="E3" s="83"/>
       <c r="F3" s="83"/>
     </row>
-    <row r="4" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="4" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A4" s="84"/>
       <c r="B4" s="84"/>
       <c r="C4" s="84"/>
@@ -14066,7 +15360,7 @@
       <c r="E4" s="84"/>
       <c r="F4" s="84"/>
     </row>
-    <row r="5" spans="1:6" s="85" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+    <row r="5" spans="1:6" s="85" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="84"/>
       <c r="B5" s="84"/>
       <c r="C5" s="84"/>
@@ -14074,7 +15368,7 @@
       <c r="E5" s="84"/>
       <c r="F5" s="84"/>
     </row>
-    <row r="6" spans="1:6" s="85" customFormat="1" ht="12">
+    <row r="6" spans="1:6" s="85" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A6" s="84"/>
       <c r="B6" s="84"/>
       <c r="C6" s="84"/>
@@ -14086,7 +15380,7 @@
       </c>
       <c r="F6" s="84"/>
     </row>
-    <row r="7" spans="1:6" s="85" customFormat="1">
+    <row r="7" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="84"/>
       <c r="B7" s="84"/>
       <c r="C7" s="84"/>
@@ -14094,11 +15388,11 @@
         <v>82</v>
       </c>
       <c r="E7" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F7" s="84"/>
     </row>
-    <row r="8" spans="1:6" s="85" customFormat="1">
+    <row r="8" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="84"/>
       <c r="B8" s="84"/>
       <c r="C8" s="84"/>
@@ -14110,7 +15404,7 @@
       </c>
       <c r="F8" s="84"/>
     </row>
-    <row r="9" spans="1:6" s="85" customFormat="1">
+    <row r="9" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="84"/>
       <c r="B9" s="84"/>
       <c r="C9" s="84"/>
@@ -14122,7 +15416,7 @@
       </c>
       <c r="F9" s="84"/>
     </row>
-    <row r="10" spans="1:6" s="85" customFormat="1">
+    <row r="10" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="84"/>
       <c r="B10" s="84"/>
       <c r="C10" s="84"/>
@@ -14134,7 +15428,7 @@
       </c>
       <c r="F10" s="84"/>
     </row>
-    <row r="11" spans="1:6" s="85" customFormat="1">
+    <row r="11" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="84"/>
       <c r="B11" s="84"/>
       <c r="C11" s="84"/>
@@ -14146,7 +15440,7 @@
       </c>
       <c r="F11" s="84"/>
     </row>
-    <row r="12" spans="1:6" s="85" customFormat="1">
+    <row r="12" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="84"/>
       <c r="B12" s="84"/>
       <c r="C12" s="84"/>
@@ -14158,7 +15452,7 @@
       </c>
       <c r="F12" s="84"/>
     </row>
-    <row r="13" spans="1:6" s="85" customFormat="1">
+    <row r="13" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="84"/>
       <c r="B13" s="84"/>
       <c r="C13" s="84"/>
@@ -14170,7 +15464,7 @@
       </c>
       <c r="F13" s="84"/>
     </row>
-    <row r="14" spans="1:6" s="85" customFormat="1">
+    <row r="14" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="84"/>
       <c r="B14" s="84"/>
       <c r="C14" s="84"/>
@@ -14182,15 +15476,19 @@
       </c>
       <c r="F14" s="84"/>
     </row>
-    <row r="15" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="15" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="84"/>
       <c r="B15" s="84"/>
       <c r="C15" s="84"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="87"/>
+      <c r="D15" s="123" t="s">
+        <v>239</v>
+      </c>
+      <c r="E15" s="141" t="s">
+        <v>240</v>
+      </c>
       <c r="F15" s="84"/>
     </row>
-    <row r="16" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="16" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A16" s="84"/>
       <c r="B16" s="84"/>
       <c r="C16" s="84"/>
@@ -14198,7 +15496,7 @@
       <c r="E16" s="87"/>
       <c r="F16" s="84"/>
     </row>
-    <row r="17" spans="1:6" s="85" customFormat="1" ht="12" thickBot="1">
+    <row r="17" spans="1:6" s="85" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="88"/>
       <c r="B17" s="84"/>
       <c r="C17" s="84"/>
@@ -14206,7 +15504,7 @@
       <c r="E17" s="90"/>
       <c r="F17" s="84"/>
     </row>
-    <row r="18" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="18" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A18" s="84"/>
       <c r="B18" s="88"/>
       <c r="C18" s="88"/>
@@ -14214,7 +15512,7 @@
       <c r="E18" s="88"/>
       <c r="F18" s="88"/>
     </row>
-    <row r="19" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="19" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A19" s="88"/>
       <c r="B19" s="88"/>
       <c r="C19" s="88"/>
@@ -14233,6 +15531,7 @@
     <hyperlink ref="D9" location="'テスト仕様_テスト結果(テスト・シナリオ3) '!A1" display="シナリオ3"/>
     <hyperlink ref="D13" location="'テスト仕様_テスト結果(テスト・シナリオ7)'!A1" display="シナリオ7"/>
     <hyperlink ref="D14" location="'テスト仕様_テスト結果(テスト・シナリオ8)'!A1" display="シナリオ8"/>
+    <hyperlink ref="D15" location="'テスト仕様_テスト結果(テスト・シナリオ9)'!A1" display="シナリオ9"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
@@ -14252,7 +15551,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="27" customWidth="1"/>
@@ -14260,55 +15559,55 @@
     <col min="4" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="6" customHeight="1">
+    <row r="1" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
     </row>
-    <row r="2" spans="1:4" ht="14.25">
+    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B5" s="33"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B6" s="128" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="25.5" customHeight="1">
-      <c r="B7" s="139" t="s">
+    <row r="7" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="145" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="139"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="C7" s="145"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B8" s="129"/>
       <c r="C8" s="130"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B9" s="34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B11" s="129"/>
       <c r="C11" s="130"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B12" s="129" t="s">
         <v>110</v>
       </c>
@@ -14316,11 +15615,11 @@
         <v>1364346</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14.25" thickBot="1">
+    <row r="13" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B13" s="129"/>
       <c r="C13" s="131"/>
     </row>
-    <row r="14" spans="1:4" ht="14.25" thickBot="1">
+    <row r="14" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" s="114" t="s">
         <v>77</v>
       </c>
@@ -14328,7 +15627,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="116" customFormat="1" ht="21">
+    <row r="15" spans="1:4" s="116" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="B15" s="135" t="s">
         <v>118</v>
       </c>
@@ -14336,7 +15635,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="116" customFormat="1" ht="21">
+    <row r="16" spans="1:4" s="116" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="B16" s="117" t="s">
         <v>113</v>
       </c>
@@ -14344,32 +15643,32 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="63.75" thickBot="1">
+    <row r="17" spans="2:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="122" t="s">
         <v>112</v>
       </c>
       <c r="C17" s="122" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B18" s="33"/>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B19" s="34" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B20" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B21" s="129"/>
       <c r="C21" s="130"/>
     </row>
-    <row r="22" spans="2:3" ht="14.25" thickBot="1">
+    <row r="22" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B22" s="129" t="s">
         <v>111</v>
       </c>
@@ -14377,7 +15676,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="14.25" thickBot="1">
+    <row r="23" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B23" s="133" t="s">
         <v>77</v>
       </c>
@@ -14385,7 +15684,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="2:3" s="116" customFormat="1" ht="32.25" thickBot="1">
+    <row r="24" spans="2:3" s="116" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="122" t="s">
         <v>118</v>
       </c>
@@ -14393,7 +15692,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="21.75" thickBot="1">
+    <row r="25" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B25" s="122" t="s">
         <v>113</v>
       </c>
@@ -14401,19 +15700,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B26" s="33"/>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B27" s="34" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B28" s="129"/>
       <c r="C28" s="130"/>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B29" s="129" t="s">
         <v>115</v>
       </c>
@@ -14421,11 +15720,11 @@
         <v>1206067</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="14.25" thickBot="1">
+    <row r="30" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B30" s="129"/>
       <c r="C30" s="131"/>
     </row>
-    <row r="31" spans="2:3" ht="14.25" thickBot="1">
+    <row r="31" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B31" s="114" t="s">
         <v>77</v>
       </c>
@@ -14433,7 +15732,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="2:3" s="116" customFormat="1" ht="31.5">
+    <row r="32" spans="2:3" s="116" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B32" s="135" t="s">
         <v>118</v>
       </c>
@@ -14441,7 +15740,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="2:3" s="116" customFormat="1" ht="21">
+    <row r="33" spans="2:3" s="116" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="B33" s="117" t="s">
         <v>113</v>
       </c>
@@ -14449,7 +15748,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="42.75" thickBot="1">
+    <row r="34" spans="2:3" ht="42.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B34" s="122" t="s">
         <v>112</v>
       </c>
@@ -14457,19 +15756,19 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B35" s="33"/>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B36" s="34" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B37" s="129"/>
       <c r="C37" s="130"/>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B38" s="129" t="s">
         <v>115</v>
       </c>
@@ -14477,11 +15776,11 @@
         <v>1206922</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="14.25" thickBot="1">
+    <row r="39" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B39" s="129"/>
       <c r="C39" s="131"/>
     </row>
-    <row r="40" spans="2:3" ht="14.25" thickBot="1">
+    <row r="40" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B40" s="114" t="s">
         <v>77</v>
       </c>
@@ -14489,7 +15788,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="2:3" s="116" customFormat="1" ht="21">
+    <row r="41" spans="2:3" s="116" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="B41" s="135" t="s">
         <v>118</v>
       </c>
@@ -14497,7 +15796,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="2:3" s="116" customFormat="1" ht="21">
+    <row r="42" spans="2:3" s="116" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="B42" s="117" t="s">
         <v>113</v>
       </c>
@@ -14505,7 +15804,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="2:3" ht="42.75" thickBot="1">
+    <row r="43" spans="2:3" ht="42.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B43" s="122" t="s">
         <v>112</v>
       </c>
@@ -14513,19 +15812,19 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B44" s="33"/>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B45" s="34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="2:3">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B46" s="129"/>
       <c r="C46" s="130"/>
     </row>
-    <row r="47" spans="2:3" ht="14.25" thickBot="1">
+    <row r="47" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B47" s="129" t="s">
         <v>109</v>
       </c>
@@ -14533,7 +15832,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="48" spans="2:3" ht="14.25" thickBot="1">
+    <row r="48" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="114" t="s">
         <v>77</v>
       </c>
@@ -14541,7 +15840,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="2:3" s="116" customFormat="1" ht="32.25" thickBot="1">
+    <row r="49" spans="2:3" s="116" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B49" s="122" t="s">
         <v>118</v>
       </c>
@@ -14549,10 +15848,10 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B50" s="33"/>
     </row>
-    <row r="51" spans="2:3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B51" s="129" t="s">
         <v>124</v>
       </c>
@@ -14560,11 +15859,11 @@
         <v>1206913</v>
       </c>
     </row>
-    <row r="52" spans="2:3" ht="14.25" thickBot="1">
+    <row r="52" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B52" s="129"/>
       <c r="C52" s="131"/>
     </row>
-    <row r="53" spans="2:3" ht="14.25" thickBot="1">
+    <row r="53" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B53" s="114" t="s">
         <v>77</v>
       </c>
@@ -14572,7 +15871,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="2:3" s="116" customFormat="1" ht="21">
+    <row r="54" spans="2:3" s="116" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="B54" s="135" t="s">
         <v>118</v>
       </c>
@@ -14580,7 +15879,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="2:3" s="116" customFormat="1" ht="21">
+    <row r="55" spans="2:3" s="116" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="B55" s="117" t="s">
         <v>113</v>
       </c>
@@ -14588,20 +15887,20 @@
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="2:3" ht="42.75" thickBot="1">
+    <row r="56" spans="2:3" ht="42.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B56" s="122" t="s">
         <v>112</v>
       </c>
       <c r="C56" s="122" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B58" s="34" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="2:3">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B59" s="129" t="s">
         <v>125</v>
       </c>
@@ -14609,11 +15908,11 @@
         <v>1206913</v>
       </c>
     </row>
-    <row r="60" spans="2:3" ht="14.25" thickBot="1">
+    <row r="60" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B60" s="129"/>
       <c r="C60" s="131"/>
     </row>
-    <row r="61" spans="2:3" ht="14.25" thickBot="1">
+    <row r="61" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B61" s="114" t="s">
         <v>77</v>
       </c>
@@ -14621,7 +15920,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="62" spans="2:3" s="116" customFormat="1" ht="21">
+    <row r="62" spans="2:3" s="116" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="B62" s="135" t="s">
         <v>118</v>
       </c>
@@ -14629,7 +15928,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="2:3" s="116" customFormat="1" ht="21">
+    <row r="63" spans="2:3" s="116" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="B63" s="117" t="s">
         <v>113</v>
       </c>
@@ -14637,23 +15936,23 @@
         <v>114</v>
       </c>
     </row>
-    <row r="64" spans="2:3" ht="42.75" thickBot="1">
+    <row r="64" spans="2:3" ht="42.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="122" t="s">
         <v>112</v>
       </c>
       <c r="C64" s="122" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B65" s="33"/>
     </row>
-    <row r="66" spans="2:3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B66" s="34" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="67" spans="2:3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B67" s="129" t="s">
         <v>125</v>
       </c>
@@ -14661,11 +15960,11 @@
         <v>1206913</v>
       </c>
     </row>
-    <row r="68" spans="2:3" ht="14.25" thickBot="1">
+    <row r="68" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B68" s="129"/>
       <c r="C68" s="131"/>
     </row>
-    <row r="69" spans="2:3" ht="14.25" thickBot="1">
+    <row r="69" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="114" t="s">
         <v>77</v>
       </c>
@@ -14673,7 +15972,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="2:3" s="116" customFormat="1" ht="21">
+    <row r="70" spans="2:3" s="116" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="B70" s="135" t="s">
         <v>118</v>
       </c>
@@ -14681,7 +15980,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="71" spans="2:3" s="116" customFormat="1" ht="21">
+    <row r="71" spans="2:3" s="116" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="B71" s="117" t="s">
         <v>113</v>
       </c>
@@ -14689,32 +15988,32 @@
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="2:3" ht="42.75" thickBot="1">
+    <row r="72" spans="2:3" ht="42.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B72" s="122" t="s">
         <v>112</v>
       </c>
       <c r="C72" s="122" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B73" s="33"/>
     </row>
-    <row r="74" spans="2:3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B74" s="34" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="75" spans="2:3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B75" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="2:3">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B76" s="129"/>
       <c r="C76" s="130"/>
     </row>
-    <row r="77" spans="2:3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B77" s="129" t="s">
         <v>128</v>
       </c>
@@ -14722,11 +16021,11 @@
         <v>1206924</v>
       </c>
     </row>
-    <row r="78" spans="2:3" ht="14.25" thickBot="1">
+    <row r="78" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B78" s="129"/>
       <c r="C78" s="131"/>
     </row>
-    <row r="79" spans="2:3" ht="14.25" thickBot="1">
+    <row r="79" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B79" s="114" t="s">
         <v>77</v>
       </c>
@@ -14734,7 +16033,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="2:3" s="116" customFormat="1" ht="52.5">
+    <row r="80" spans="2:3" s="116" customFormat="1" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B80" s="135" t="s">
         <v>118</v>
       </c>
@@ -14742,7 +16041,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="81" spans="2:3" s="116" customFormat="1" ht="21">
+    <row r="81" spans="2:3" s="116" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="B81" s="117" t="s">
         <v>113</v>
       </c>
@@ -14750,7 +16049,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="82" spans="2:3" ht="42.75" thickBot="1">
+    <row r="82" spans="2:3" ht="42.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B82" s="122" t="s">
         <v>112</v>
       </c>
@@ -14758,11 +16057,11 @@
         <v>130</v>
       </c>
     </row>
-    <row r="83" spans="2:3">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B83" s="35"/>
       <c r="C83" s="35"/>
     </row>
-    <row r="84" spans="2:3">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B84" s="35"/>
       <c r="C84" s="35"/>
     </row>
@@ -14794,7 +16093,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -14807,7 +16106,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -14818,35 +16117,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="25" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="B5" s="25" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="25"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="37" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="B6" s="25"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="B8" s="37" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="105" t="s">
         <v>42</v>
       </c>
@@ -14857,7 +16156,7 @@
         <v>44</v>
       </c>
       <c r="E10" s="106" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F10" s="106" t="s">
         <v>46</v>
@@ -14872,13 +16171,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="31.5">
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>132</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D11" s="46"/>
       <c r="E11" s="46"/>
@@ -14887,25 +16186,25 @@
       <c r="H11" s="51"/>
       <c r="I11" s="78"/>
     </row>
-    <row r="12" spans="1:9" ht="73.5">
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A12" s="38"/>
       <c r="B12" s="64" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="119" t="s">
         <v>226</v>
       </c>
-      <c r="C12" s="119" t="s">
+      <c r="D12" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="E12" s="51" t="s">
         <v>228</v>
-      </c>
-      <c r="E12" s="51" t="s">
-        <v>229</v>
       </c>
       <c r="F12" s="39" t="s">
         <v>191</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H12" s="39" t="s">
         <v>195</v>
@@ -14914,7 +16213,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="63">
+    <row r="13" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="A13" s="38"/>
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
@@ -14935,7 +16234,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="A14" s="38"/>
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
@@ -14947,7 +16246,7 @@
         <v>191</v>
       </c>
       <c r="G14" s="57" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H14" s="57" t="s">
         <v>195</v>
@@ -14956,7 +16255,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="115.5">
+    <row r="15" spans="1:9" ht="115.5" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -14967,7 +16266,7 @@
         <v>191</v>
       </c>
       <c r="G15" s="46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H15" s="46" t="s">
         <v>195</v>
@@ -14976,7 +16275,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="52.5">
+    <row r="16" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -14987,7 +16286,7 @@
         <v>191</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H16" s="46" t="s">
         <v>195</v>
@@ -14996,18 +16295,18 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="105">
+    <row r="17" spans="1:9" ht="105" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
       <c r="E17" s="121" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F17" s="121" t="s">
         <v>191</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H17" s="46" t="s">
         <v>195</v>
@@ -15016,7 +16315,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="63">
+    <row r="18" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -15036,7 +16335,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="105">
+    <row r="19" spans="1:9" ht="105" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -15047,7 +16346,7 @@
         <v>191</v>
       </c>
       <c r="G19" s="46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H19" s="46" t="s">
         <v>195</v>
@@ -15056,7 +16355,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="63">
+    <row r="20" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -15067,7 +16366,7 @@
         <v>191</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H20" s="46" t="s">
         <v>195</v>
@@ -15076,7 +16375,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="63">
+    <row r="21" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
@@ -15088,7 +16387,7 @@
         <v>191</v>
       </c>
       <c r="G21" s="57" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H21" s="57" t="s">
         <v>195</v>
@@ -15097,7 +16396,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="38"/>
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
@@ -15108,7 +16407,7 @@
       <c r="H22" s="57"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -15118,7 +16417,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="38"/>
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
@@ -15129,7 +16428,7 @@
       <c r="H24" s="57"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -15139,7 +16438,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -15149,7 +16448,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -15159,7 +16458,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -15169,7 +16468,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="64"/>
       <c r="C29" s="119"/>
       <c r="D29" s="46"/>
@@ -15179,7 +16478,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="64"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -15189,7 +16488,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="64"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -15199,7 +16498,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="68"/>
       <c r="C32" s="46"/>
       <c r="D32" s="46"/>
@@ -15209,7 +16508,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="68"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -15219,7 +16518,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25" thickBot="1">
+    <row r="34" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B34" s="72"/>
       <c r="C34" s="47"/>
       <c r="D34" s="47"/>
@@ -15229,7 +16528,7 @@
       <c r="H34" s="47"/>
       <c r="I34" s="77"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -15239,7 +16538,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -15249,7 +16548,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9" ht="6" customHeight="1">
+    <row r="37" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="28"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -15259,9 +16558,9 @@
       <c r="G37" s="35"/>
       <c r="H37" s="35"/>
     </row>
-    <row r="38" spans="1:9" ht="14.25">
+    <row r="38" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E38" s="35"/>
       <c r="F38" s="35"/>
@@ -15269,7 +16568,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -15279,7 +16578,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="127"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -15289,7 +16588,7 @@
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
@@ -15299,7 +16598,7 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -15309,7 +16608,7 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
@@ -15319,7 +16618,7 @@
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
@@ -15355,7 +16654,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -15368,7 +16667,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -15379,35 +16678,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="105" t="s">
         <v>42</v>
       </c>
@@ -15433,7 +16732,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="31.5">
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>132</v>
@@ -15448,13 +16747,13 @@
       <c r="H11" s="51"/>
       <c r="I11" s="78"/>
     </row>
-    <row r="12" spans="1:9" ht="73.5">
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A12" s="38"/>
       <c r="B12" s="64" t="s">
         <v>133</v>
       </c>
       <c r="C12" s="119" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D12" s="46" t="s">
         <v>137</v>
@@ -15466,7 +16765,7 @@
         <v>191</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H12" s="39" t="s">
         <v>195</v>
@@ -15475,19 +16774,19 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="63">
+    <row r="13" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="A13" s="38"/>
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
       <c r="E13" s="57" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F13" s="57" t="s">
         <v>191</v>
       </c>
       <c r="G13" s="57" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H13" s="57" t="s">
         <v>195</v>
@@ -15496,7 +16795,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="A14" s="38"/>
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
@@ -15508,7 +16807,7 @@
         <v>191</v>
       </c>
       <c r="G14" s="57" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H14" s="57" t="s">
         <v>195</v>
@@ -15517,7 +16816,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -15528,7 +16827,7 @@
         <v>191</v>
       </c>
       <c r="G15" s="46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H15" s="46" t="s">
         <v>195</v>
@@ -15537,18 +16836,18 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="147">
+    <row r="16" spans="1:9" ht="147" x14ac:dyDescent="0.15">
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
       <c r="E16" s="121" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F16" s="121" t="s">
         <v>191</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H16" s="46" t="s">
         <v>195</v>
@@ -15557,7 +16856,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="63">
+    <row r="17" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -15568,7 +16867,7 @@
         <v>191</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H17" s="46" t="s">
         <v>195</v>
@@ -15577,7 +16876,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="105">
+    <row r="18" spans="1:9" ht="105" x14ac:dyDescent="0.15">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -15588,7 +16887,7 @@
         <v>191</v>
       </c>
       <c r="G18" s="46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H18" s="46" t="s">
         <v>195</v>
@@ -15597,7 +16896,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="38"/>
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
@@ -15608,7 +16907,7 @@
       <c r="H19" s="57"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -15618,7 +16917,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
@@ -15629,7 +16928,7 @@
       <c r="H21" s="57"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -15639,7 +16938,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -15649,7 +16948,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
@@ -15659,7 +16958,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -15669,7 +16968,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="119"/>
       <c r="D26" s="46"/>
@@ -15679,7 +16978,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -15689,7 +16988,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -15699,7 +16998,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="68"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -15709,7 +17008,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="68"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -15719,7 +17018,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9" ht="14.25" thickBot="1">
+    <row r="31" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B31" s="72"/>
       <c r="C31" s="47"/>
       <c r="D31" s="47"/>
@@ -15729,7 +17028,7 @@
       <c r="H31" s="47"/>
       <c r="I31" s="77"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
@@ -15739,7 +17038,7 @@
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
       <c r="D33" s="35"/>
@@ -15749,7 +17048,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
     </row>
-    <row r="34" spans="1:9" ht="6" customHeight="1">
+    <row r="34" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="28"/>
       <c r="B34" s="28"/>
       <c r="C34" s="28"/>
@@ -15759,7 +17058,7 @@
       <c r="G34" s="35"/>
       <c r="H34" s="35"/>
     </row>
-    <row r="35" spans="1:9" ht="14.25">
+    <row r="35" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="32" t="s">
         <v>50</v>
       </c>
@@ -15769,7 +17068,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -15779,7 +17078,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="127"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -15789,7 +17088,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -15799,7 +17098,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -15809,7 +17108,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -15819,7 +17118,7 @@
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
@@ -15851,11 +17150,11 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -15868,7 +17167,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -15879,35 +17178,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="105" t="s">
         <v>42</v>
       </c>
@@ -15933,7 +17232,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="31.5">
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>144</v>
@@ -15948,7 +17247,7 @@
       <c r="H11" s="51"/>
       <c r="I11" s="78"/>
     </row>
-    <row r="12" spans="1:9" ht="73.5">
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A12" s="38"/>
       <c r="B12" s="64" t="s">
         <v>145</v>
@@ -15975,7 +17274,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="63">
+    <row r="13" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="A13" s="38"/>
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
@@ -15996,7 +17295,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -16016,7 +17315,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="105">
+    <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -16036,7 +17335,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="52.5">
+    <row r="16" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
@@ -16057,7 +17356,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="31.5">
+    <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -16077,7 +17376,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="105">
+    <row r="18" spans="1:9" ht="105" x14ac:dyDescent="0.15">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -16097,7 +17396,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="63">
+    <row r="19" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -16117,7 +17416,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="31.5">
+    <row r="20" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -16137,7 +17436,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
@@ -16147,7 +17446,7 @@
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -16157,7 +17456,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -16167,7 +17466,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="38"/>
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
@@ -16178,7 +17477,7 @@
       <c r="H24" s="57"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="38"/>
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
@@ -16189,7 +17488,7 @@
       <c r="H25" s="57"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -16199,7 +17498,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="38"/>
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
@@ -16210,7 +17509,7 @@
       <c r="H27" s="57"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="38"/>
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
@@ -16221,7 +17520,7 @@
       <c r="H28" s="57"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="64"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -16231,7 +17530,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="64"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -16241,7 +17540,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="64"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -16251,7 +17550,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="64"/>
       <c r="C32" s="46"/>
       <c r="D32" s="46"/>
@@ -16261,7 +17560,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="64"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -16271,7 +17570,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="64"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
@@ -16281,7 +17580,7 @@
       <c r="H34" s="46"/>
       <c r="I34" s="76"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="64"/>
       <c r="C35" s="119"/>
       <c r="D35" s="46"/>
@@ -16291,7 +17590,7 @@
       <c r="H35" s="46"/>
       <c r="I35" s="76"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="64"/>
       <c r="C36" s="46"/>
       <c r="D36" s="46"/>
@@ -16301,7 +17600,7 @@
       <c r="H36" s="46"/>
       <c r="I36" s="76"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="68"/>
       <c r="C37" s="46"/>
       <c r="D37" s="46"/>
@@ -16311,7 +17610,7 @@
       <c r="H37" s="46"/>
       <c r="I37" s="76"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="68"/>
       <c r="C38" s="46"/>
       <c r="D38" s="46"/>
@@ -16321,7 +17620,7 @@
       <c r="H38" s="46"/>
       <c r="I38" s="76"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="68"/>
       <c r="C39" s="46"/>
       <c r="D39" s="46"/>
@@ -16331,7 +17630,7 @@
       <c r="H39" s="46"/>
       <c r="I39" s="76"/>
     </row>
-    <row r="40" spans="1:9" ht="14.25" thickBot="1">
+    <row r="40" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B40" s="72"/>
       <c r="C40" s="47"/>
       <c r="D40" s="47"/>
@@ -16341,7 +17640,7 @@
       <c r="H40" s="47"/>
       <c r="I40" s="77"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
@@ -16351,7 +17650,7 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -16361,7 +17660,7 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:9" ht="6" customHeight="1">
+    <row r="43" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
@@ -16371,7 +17670,7 @@
       <c r="G43" s="35"/>
       <c r="H43" s="35"/>
     </row>
-    <row r="44" spans="1:9" ht="14.25">
+    <row r="44" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="32" t="s">
         <v>50</v>
       </c>
@@ -16381,7 +17680,7 @@
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="35"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
@@ -16391,7 +17690,7 @@
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
@@ -16401,7 +17700,7 @@
       <c r="H46" s="35"/>
       <c r="I46" s="35"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B47" s="35"/>
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
@@ -16411,7 +17710,7 @@
       <c r="H47" s="35"/>
       <c r="I47" s="35"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B48" s="35"/>
       <c r="C48" s="35"/>
       <c r="D48" s="35"/>
@@ -16421,7 +17720,7 @@
       <c r="H48" s="35"/>
       <c r="I48" s="35"/>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B49" s="35"/>
       <c r="C49" s="35"/>
       <c r="D49" s="35"/>
@@ -16431,7 +17730,7 @@
       <c r="H49" s="35"/>
       <c r="I49" s="35"/>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B50" s="35"/>
       <c r="C50" s="35"/>
       <c r="D50" s="35"/>
@@ -16467,7 +17766,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -16480,7 +17779,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -16491,35 +17790,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="105" t="s">
         <v>42</v>
       </c>
@@ -16545,7 +17844,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="31.5">
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>152</v>
@@ -16560,7 +17859,7 @@
       <c r="H11" s="120"/>
       <c r="I11" s="126"/>
     </row>
-    <row r="12" spans="1:9" ht="73.5">
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B12" s="64" t="s">
         <v>153</v>
       </c>
@@ -16586,7 +17885,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="63">
+    <row r="13" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -16606,7 +17905,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -16626,7 +17925,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="105">
+    <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -16646,7 +17945,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="52.5">
+    <row r="16" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -16666,7 +17965,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="31.5">
+    <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -16686,7 +17985,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="105">
+    <row r="18" spans="1:9" ht="105" x14ac:dyDescent="0.15">
       <c r="A18" s="38"/>
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
@@ -16707,7 +18006,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="63">
+    <row r="19" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="A19" s="38"/>
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
@@ -16728,7 +18027,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="31.5">
+    <row r="20" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -16748,7 +18047,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
@@ -16759,7 +18058,7 @@
       <c r="H21" s="57"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="38"/>
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
@@ -16770,7 +18069,7 @@
       <c r="H22" s="57"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="121"/>
@@ -16780,7 +18079,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
@@ -16790,7 +18089,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -16800,7 +18099,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -16810,7 +18109,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -16820,7 +18119,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -16830,7 +18129,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="64"/>
       <c r="C29" s="119"/>
       <c r="D29" s="46"/>
@@ -16840,7 +18139,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="64"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -16850,7 +18149,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="68"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -16860,7 +18159,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="68"/>
       <c r="C32" s="46"/>
       <c r="D32" s="46"/>
@@ -16870,7 +18169,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="68"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -16880,7 +18179,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25" thickBot="1">
+    <row r="34" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B34" s="72"/>
       <c r="C34" s="47"/>
       <c r="D34" s="47"/>
@@ -16890,7 +18189,7 @@
       <c r="H34" s="47"/>
       <c r="I34" s="77"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -16900,7 +18199,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -16910,7 +18209,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9" ht="6" customHeight="1">
+    <row r="37" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="28"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -16920,7 +18219,7 @@
       <c r="G37" s="35"/>
       <c r="H37" s="35"/>
     </row>
-    <row r="38" spans="1:9" ht="14.25">
+    <row r="38" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="32" t="s">
         <v>50</v>
       </c>
@@ -16930,7 +18229,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -16940,7 +18239,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -16950,7 +18249,7 @@
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
@@ -16960,7 +18259,7 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -16970,7 +18269,7 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
@@ -16980,7 +18279,7 @@
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
